--- a/WorkLog.xlsx
+++ b/WorkLog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zzhang01\Desktop\Software\BarCodeSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zed\Desktop\OptimalEV\BarCodeSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5808E165-99D9-4A95-91BE-ED79CEACE638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99DD8EC-1BA8-4F84-B85F-B01BE9BE385F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Work Order</t>
   </si>
   <si>
-    <t>Cell</t>
-  </si>
-  <si>
     <t>Assembly</t>
   </si>
   <si>
@@ -43,15 +40,6 @@
     <t>Employee ID4</t>
   </si>
   <si>
-    <t>Employee ID5</t>
-  </si>
-  <si>
-    <t>Employee ID6</t>
-  </si>
-  <si>
-    <t>Employee ID7</t>
-  </si>
-  <si>
     <t xml:space="preserve">Time Start Date </t>
   </si>
   <si>
@@ -65,9 +53,6 @@
   </si>
   <si>
     <t>ID1_1188</t>
-  </si>
-  <si>
-    <t>ID1_E-B03</t>
   </si>
   <si>
     <t>ID1_13735</t>
@@ -466,20 +451,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="G4" sqref="G4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="15" width="20" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="25.73046875" customWidth="1"/>
+    <col min="3" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,167 +495,142 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="G2" s="2">
+        <v>45616</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.44453703703703706</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45616</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.44578703703703704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2">
-        <v>45616</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.44453703703703706</v>
-      </c>
-      <c r="M2" s="2">
-        <v>45616</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0.44578703703703704</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="2">
-        <v>45616</v>
-      </c>
-      <c r="L3" s="3">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45616</v>
+      </c>
+      <c r="H3" s="3">
         <v>0.45041666666666669</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45616</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45616</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.54553240740740738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45616</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.55467592592592596</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45616</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.58060185185185187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45616</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.5556712962962963</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45616</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.57270833333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="2">
-        <v>45616</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.48541666666666666</v>
-      </c>
-      <c r="M4" s="2">
-        <v>45616</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.54553240740740738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2">
-        <v>45616</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.55467592592592596</v>
-      </c>
-      <c r="M5" s="2">
-        <v>45616</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.58060185185185187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="2">
-        <v>45616</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.5556712962962963</v>
-      </c>
-      <c r="M6" s="2">
-        <v>45616</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.57270833333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="2">
-        <v>45616</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="G7" s="2">
+        <v>45616</v>
+      </c>
+      <c r="H7" s="3">
         <v>0.57565972222222217</v>
       </c>
-      <c r="M7" s="2">
-        <v>45616</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="I7" s="2">
+        <v>45616</v>
+      </c>
+      <c r="J7" s="3">
         <v>0.58635416666666662</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="2">
-        <v>45616</v>
-      </c>
-      <c r="L8" s="3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45616</v>
+      </c>
+      <c r="H8" s="3">
         <v>0.58060185185185187</v>
       </c>
     </row>
